--- a/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\덕코프\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD6EB6-13D7-47A5-804E-BEB01EFF27BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FCAAE-C2E8-4015-A8F0-3B1A18BAF030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
+    <workbookView xWindow="6465" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,26 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,7 +106,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weightValue</t>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,24 +601,24 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -626,22 +626,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FCAAE-C2E8-4015-A8F0-3B1A18BAF030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB29956-0E39-45F7-A16E-A99953DD5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Etc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,6 +123,30 @@
   </si>
   <si>
     <t>WeightValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,59 +592,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1B0CD-82CA-4F60-9855-B60A8FBED752}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -632,135 +663,156 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>102</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.41</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>178</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>845</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2837</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1241</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>7515</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>18.46</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>21436</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB29956-0E39-45F7-A16E-A99953DD5967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C4F4F-15FC-40A1-84A5-D49D82CFDA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
+    <workbookView xWindow="4500" yWindow="3945" windowWidth="21600" windowHeight="11295" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Etc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,6 +143,18 @@
   </si>
   <si>
     <t>전설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 소지 스택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B1B0CD-82CA-4F60-9855-B60A8FBED752}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,9 +615,10 @@
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,13 +640,16 @@
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -654,8 +666,11 @@
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -677,13 +692,16 @@
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -700,13 +718,16 @@
       <c r="G4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -723,13 +744,16 @@
       <c r="G5" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -746,13 +770,16 @@
       <c r="G6" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -769,13 +796,16 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1241</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -792,13 +822,16 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -815,6 +848,24 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Etc_Item_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C4F4F-15FC-40A1-84A5-D49D82CFDA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E14D89F-59B9-4117-93BE-A363F65FCACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3945" windowWidth="21600" windowHeight="11295" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE0583BB-D93F-48B9-9871-CCD056A6EF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,15 +146,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 소지 스택</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MaxStackSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
